--- a/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
+++ b/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\keyworddriven.monkey.game\src\main\java\testcases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736AC9F2-E2C7-4F91-A630-D59DE90DEEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Keywords" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="TestCase" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="TestSteps" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Biểu đồ" sheetId="4" r:id="rId7"/>
+    <sheet name="Keywords" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase" sheetId="2" r:id="rId2"/>
+    <sheet name="TestSteps" sheetId="3" r:id="rId3"/>
+    <sheet name="Biểu đồ" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="RhtsYhGF15nlek1M57sPWQpJVUJFo9UmhAhweR4U2jw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="rSR687vBnREJLfNz4J48Rkz+QB/s3WVVoaaq5CrsHmk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>Keyword</t>
   </si>
@@ -126,7 +135,7 @@
     <t>Params</t>
   </si>
   <si>
-    <t>ProceedOnFail</t>
+    <t>Proceed</t>
   </si>
   <si>
     <t>DataSet</t>
@@ -156,6 +165,9 @@
     <t>HomeButton,Button.onClick()</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>TS02</t>
   </si>
   <si>
@@ -165,6 +177,9 @@
     <t>AISpeaking,Button.onClick()</t>
   </si>
   <si>
+    <t>AISpeakingScene</t>
+  </si>
+  <si>
     <t>TS03</t>
   </si>
   <si>
@@ -204,24 +219,6 @@
     <t>TS07</t>
   </si>
   <si>
-    <t>Click Debug new game</t>
-  </si>
-  <si>
-    <t>DebugAI/button_debug_new_game_ais</t>
-  </si>
-  <si>
-    <t>TS08</t>
-  </si>
-  <si>
-    <t>Chọn On Debug new game</t>
-  </si>
-  <si>
-    <t>Item 0: On Debug New Game</t>
-  </si>
-  <si>
-    <t>TS09</t>
-  </si>
-  <si>
     <t>Close Debug</t>
   </si>
   <si>
@@ -238,27 +235,36 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
@@ -268,7 +274,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,139 +296,123 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9FC5E8"/>
           <bgColor rgb="FF9FC5E8"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
+          <fgColor rgb="FF9FC5E8"/>
+          <bgColor rgb="FF9FC5E8"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8610600" cy="6276975"/>
@@ -430,15 +420,18 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="923072619" name="Chart1" title="Biểu đồ">
           <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006BF80437}"/>
+            </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -456,7 +449,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -646,28 +639,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="40.5"/>
-    <col customWidth="1" min="2" max="2" width="33.75"/>
-    <col customWidth="1" min="3" max="3" width="19.25"/>
-    <col customWidth="1" min="4" max="4" width="13.63"/>
-    <col customWidth="1" min="5" max="5" width="29.25"/>
-    <col customWidth="1" min="6" max="9" width="12.63"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,16 +704,16 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4"/>
@@ -745,16 +741,16 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4"/>
@@ -782,18 +778,18 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -819,16 +815,16 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -854,17 +850,17 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -891,17 +887,17 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -928,17 +924,17 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -965,17 +961,17 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1002,17 +998,17 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1039,17 +1035,17 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1077,715 +1073,662 @@
       <c r="AC11" s="4"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C11">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"void,String"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
-    <col customWidth="1" min="2" max="2" width="54.63"/>
-    <col customWidth="1" min="3" max="3" width="15.63"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D3">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D3">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C3">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="12.13"/>
-    <col customWidth="1" min="3" max="3" width="43.75"/>
-    <col customWidth="1" min="4" max="4" width="31.25"/>
-    <col customWidth="1" min="5" max="5" width="36.75"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="14.25"/>
-    <col customWidth="1" min="7" max="7" width="20.75"/>
-    <col customWidth="1" min="8" max="8" width="25.5"/>
-    <col customWidth="1" min="9" max="9" width="29.38"/>
-    <col customWidth="1" min="10" max="10" width="28.5"/>
-    <col customWidth="1" min="12" max="12" width="24.63"/>
-    <col customWidth="1" min="13" max="13" width="20.5"/>
+    <col min="1" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="J9" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K11 L1:M1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="L1:M1 K1:K9">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K11 L1:M1">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K11 L1:M1">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D11 H2:H11">
-      <formula1>Keywords!$A$2:$A11</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A11">
-      <formula1>TestCase!$A$2:$A11</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F11">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>Keywords!$A$2:$A9</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D9 H2:H9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>TestCase!$A$2:$A9</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <sheetProtection objects="1" selectLockedCells="1" selectUnlockedCells="1" sheet="1"/>
+  <sheetProtection sheet="1" objects="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
+++ b/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\keyworddriven.monkey.game\src\main\java\testcases\"/>
     </mc:Choice>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t>Keyword</t>
   </si>
@@ -244,12 +244,16 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Method execute_action | Exception desc : null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -424,7 +428,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006BF80437}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -655,12 +659,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="9" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="40.42578125"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375"/>
+    <col min="3" max="3" customWidth="true" width="19.28515625"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125"/>
+    <col min="5" max="5" customWidth="true" width="29.28515625"/>
+    <col min="6" max="9" customWidth="true" width="12.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,10 +1099,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.5703125"/>
+    <col min="2" max="2" customWidth="true" width="54.5703125"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125"/>
+    <col min="4" max="6" customWidth="true" width="12.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1149,10 +1153,10 @@
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>69</v>
       </c>
       <c r="F2" s="4"/>
@@ -1187,10 +1191,10 @@
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>69</v>
       </c>
       <c r="F3" s="4"/>
@@ -1249,17 +1253,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="12.140625"/>
+    <col min="3" max="3" customWidth="true" width="43.7109375"/>
+    <col min="4" max="4" customWidth="true" width="31.28515625"/>
+    <col min="5" max="5" customWidth="true" width="36.7109375"/>
+    <col min="6" max="6" customWidth="true" width="14.28515625"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375"/>
+    <col min="8" max="8" customWidth="true" width="25.42578125"/>
+    <col min="9" max="9" customWidth="true" width="29.42578125"/>
+    <col min="10" max="10" customWidth="true" width="28.42578125"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125"/>
+    <col min="13" max="13" customWidth="true" width="20.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,6 +1664,12 @@
       </c>
       <c r="J9" s="14" t="s">
         <v>68</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>72</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>

--- a/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
+++ b/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\keyworddriven.monkey.game\src\main\java\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736AC9F2-E2C7-4F91-A630-D59DE90DEEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449E4791-FC0B-4CFE-AF47-51AF0A6CD5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
   <si>
     <t>Keyword</t>
   </si>
@@ -231,22 +231,25 @@
     <t>Image1/LessonSLot3_3/Lesson(Clone)</t>
   </si>
   <si>
-    <t>IntroDialog_GamePlay(Clone)</t>
+    <t>IntroDialog_GamePlay(Clone)\ButtonNextGame</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
     <t>Method execute_action | Exception desc : null</t>
+  </si>
+  <si>
+    <t>| convert | Index 0 out of bounds for length 0</t>
   </si>
 </sst>
 </file>
@@ -1093,9 +1096,7 @@
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1154,10 +1155,10 @@
         <v>30</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>69</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1195,7 +1196,7 @@
         <v>71</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1247,8 +1248,8 @@
   </sheetPr>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1669,7 +1670,7 @@
         <v>71</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -1735,7 +1736,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <sheetProtection sheet="1" objects="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
+++ b/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\keyworddriven.monkey.game\src\main\java\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449E4791-FC0B-4CFE-AF47-51AF0A6CD5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F7C72-6E03-4FEA-956F-F7B350167FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,14 @@
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="rSR687vBnREJLfNz4J48Rkz+QB/s3WVVoaaq5CrsHmk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="IFpYA4CdPI/rzNcCPuMoyUf1T+EFZG9tYf9YZNvAUKs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="70">
   <si>
     <t>Keyword</t>
   </si>
@@ -165,9 +165,6 @@
     <t>HomeButton,Button.onClick()</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>TS02</t>
   </si>
   <si>
@@ -231,7 +228,7 @@
     <t>Image1/LessonSLot3_3/Lesson(Clone)</t>
   </si>
   <si>
-    <t>IntroDialog_GamePlay(Clone)\ButtonNextGame</t>
+    <t>IntroDialog_GamePlay(Clone)/ButtonNextGame</t>
   </si>
   <si>
     <t>true</t>
@@ -241,15 +238,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Method execute_action | Exception desc : null</t>
-  </si>
-  <si>
-    <t>| convert | Index 0 out of bounds for length 0</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1143,10 @@
         <v>30</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>69</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1193,10 +1181,10 @@
         <v>30</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1248,8 +1236,8 @@
   </sheetPr>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1342,14 +1330,16 @@
         <v>44</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="K2" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="L2" s="0"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
@@ -1374,19 +1364,19 @@
         <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
@@ -1394,10 +1384,14 @@
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>69</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -1422,26 +1416,30 @@
         <v>28</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>69</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -1466,26 +1464,30 @@
         <v>28</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>69</v>
+      </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -1510,26 +1512,30 @@
         <v>28</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="K6" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>69</v>
+      </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -1554,26 +1560,30 @@
         <v>28</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="K7" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>69</v>
+      </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -1598,26 +1608,30 @@
         <v>28</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="K8" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>69</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -1645,13 +1659,13 @@
         <v>42</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>30</v>
@@ -1661,16 +1675,16 @@
         <v>14</v>
       </c>
       <c r="I9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="K9" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="K9" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="L9" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>

--- a/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
+++ b/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\keyworddriven.monkey.game\src\main\java\testcases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F7C72-6E03-4FEA-956F-F7B350167FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Keywords" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCase" sheetId="2" r:id="rId2"/>
-    <sheet name="TestSteps" sheetId="3" r:id="rId3"/>
-    <sheet name="Biểu đồ" sheetId="4" r:id="rId4"/>
+    <sheet state="visible" name="Keywords" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="TestCase" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="TestSteps" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Biểu đồ" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="IFpYA4CdPI/rzNcCPuMoyUf1T+EFZG9tYf9YZNvAUKs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="OA/XVU8CKtfKZiN/CbX5HkfL7vAwejTIVpUZhBONO6s="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="70">
   <si>
     <t>Keyword</t>
   </si>
@@ -123,6 +116,9 @@
     <t>Y</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>TC02</t>
   </si>
   <si>
@@ -222,10 +218,10 @@
     <t>DebugView/Debug/Close,Button.onClick()</t>
   </si>
   <si>
-    <t>Play lesson 3</t>
-  </si>
-  <si>
-    <t>Image1/LessonSLot3_3/Lesson(Clone)</t>
+    <t>Play lesson 6</t>
+  </si>
+  <si>
+    <t>Image2/LessonSLot3_3/Lesson(Clone),0</t>
   </si>
   <si>
     <t>IntroDialog_GamePlay(Clone)/ButtonNextGame</t>
@@ -235,31 +231,32 @@
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
@@ -269,7 +266,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,143 +287,153 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9FC5E8"/>
+          <bgColor rgb="FF9FC5E8"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFCCCCCC"/>
           <bgColor rgb="FFCCCCCC"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9FC5E8"/>
-          <bgColor rgb="FF9FC5E8"/>
-        </patternFill>
-      </fill>
+      <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
     <xdr:ext cx="8610600" cy="6276975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="923072619" name="Chart1" title="Biểu đồ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006BF80437}"/>
-            </a:ext>
-            <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" pictureOfChart="1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Biểu đồ"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -439,12 +446,12 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:absoluteAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -634,31 +641,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.42578125"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375"/>
-    <col min="3" max="3" customWidth="true" width="19.28515625"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125"/>
-    <col min="5" max="5" customWidth="true" width="29.28515625"/>
-    <col min="6" max="9" customWidth="true" width="12.5703125"/>
+    <col min="1" max="1" customWidth="true" width="40.38"/>
+    <col min="2" max="2" customWidth="true" width="33.75"/>
+    <col min="3" max="3" customWidth="true" width="19.25"/>
+    <col min="4" max="4" customWidth="true" width="13.63"/>
+    <col min="5" max="5" customWidth="true" width="29.25"/>
+    <col min="6" max="9" customWidth="true" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,11 +701,8 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -732,11 +735,8 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -769,11 +769,8 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -806,11 +803,8 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -841,11 +835,8 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -878,11 +869,8 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -915,11 +903,8 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -952,11 +937,8 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -989,11 +971,8 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1026,11 +1005,8 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1063,38 +1039,1019 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
     </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C11">
       <formula1>"void,String"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.5703125"/>
-    <col min="2" max="2" customWidth="true" width="54.5703125"/>
-    <col min="3" max="3" customWidth="true" width="15.5703125"/>
-    <col min="4" max="6" customWidth="true" width="12.5703125"/>
+    <col min="1" max="1" customWidth="true" width="12.63"/>
+    <col min="2" max="2" customWidth="true" width="54.63"/>
+    <col min="3" max="3" customWidth="true" width="15.63"/>
+    <col min="4" max="6" customWidth="true" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -1132,7 +2089,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1143,10 +2100,10 @@
         <v>30</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s" s="0">
         <v>69</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1170,21 +2127,21 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s" s="0">
         <v>69</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1210,550 +2167,1579 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D3">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D3">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D3">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="12.140625"/>
-    <col min="3" max="3" customWidth="true" width="43.7109375"/>
-    <col min="4" max="4" customWidth="true" width="31.28515625"/>
-    <col min="5" max="5" customWidth="true" width="36.7109375"/>
-    <col min="6" max="6" customWidth="true" width="14.28515625"/>
-    <col min="7" max="7" customWidth="true" width="20.7109375"/>
-    <col min="8" max="8" customWidth="true" width="25.42578125"/>
-    <col min="9" max="9" customWidth="true" width="29.42578125"/>
-    <col min="10" max="10" customWidth="true" width="28.42578125"/>
-    <col min="12" max="12" customWidth="true" width="24.5703125"/>
-    <col min="13" max="13" customWidth="true" width="20.42578125"/>
+    <col min="1" max="2" customWidth="true" width="12.13"/>
+    <col min="3" max="3" customWidth="true" width="43.75"/>
+    <col min="4" max="4" customWidth="true" width="31.25"/>
+    <col min="5" max="5" customWidth="true" width="36.75"/>
+    <col min="6" max="6" customWidth="true" width="14.25"/>
+    <col min="7" max="7" customWidth="true" width="20.75"/>
+    <col min="8" max="8" customWidth="true" width="25.38"/>
+    <col min="9" max="9" customWidth="true" width="29.38"/>
+    <col min="10" max="10" customWidth="true" width="28.38"/>
+    <col min="12" max="12" customWidth="true" width="24.63"/>
+    <col min="13" max="13" customWidth="true" width="20.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
+      <c r="M1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
     </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="13"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="15"/>
       <c r="K2" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L2" s="0"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="15"/>
+      <c r="K4" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="15"/>
+      <c r="K5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="15"/>
+      <c r="K6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="15"/>
+      <c r="K7" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="15"/>
+      <c r="K8" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="0"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="L3" t="s" s="0">
+      <c r="K9" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="13"/>
-      <c r="K4" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="13"/>
-      <c r="K5" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13"/>
-      <c r="K6" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="13"/>
-      <c r="K7" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="L7" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="13"/>
-      <c r="K8" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="L8" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="L9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="L9" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:M1 K1:K9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="K1:K9 L1:M1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K9 L1:M1">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K9 L1:M1">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{00000000-0002-0000-0200-000002000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A6">
+      <formula1>TestCase!$A$2:$A3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8">
+      <formula1>TestCase!$A$2:$A3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A9">
+      <formula1>TestCase!$A$2:$A3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D9 H2:H9">
+      <formula1>Keywords!$A$2:$A9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2">
+      <formula1>TestCase!$A$2:$A3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>"Y,N"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A7">
+      <formula1>TestCase!$A$2:$A3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A4">
+      <formula1>TestCase!$A$2:$A3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A5">
+      <formula1>TestCase!$A$2:$A3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A3">
+      <formula1>TestCase!$A$2:$A3</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>Keywords!$A$2:$A9</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D9 H2:H9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
-          <x14:formula1>
-            <xm:f>TestCase!$A$2:$A9</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A9</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <sheetProtection sheet="1" objects="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="6" customWidth="true" width="8.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1"/>
+    <row r="2" ht="14.25" customHeight="1"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
+++ b/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="70">
   <si>
     <t>Keyword</t>
   </si>

--- a/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
+++ b/src/main/java/testcases/Report_IntroDialog.BE.ID01(Clone).xlsx
@@ -2,12 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="Keywords" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="TestCase" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="TestSteps" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -18,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="157">
   <si>
     <t>Keyword</t>
   </si>
@@ -179,6 +181,9 @@
     <t>Kiểm tra hiển thị game Intro diaglog ở act 1 của flow 3</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>TC03</t>
   </si>
   <si>
@@ -483,12 +488,16 @@
   </si>
   <si>
     <t>Chat//Content//Image/Text (TMP)</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -900,17 +909,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="40.5"/>
-    <col customWidth="1" min="2" max="2" width="33.75"/>
-    <col customWidth="1" min="3" max="3" width="19.25"/>
-    <col customWidth="1" min="4" max="4" width="42.75"/>
-    <col customWidth="1" min="5" max="5" width="29.25"/>
-    <col customWidth="1" min="6" max="9" width="12.63"/>
+    <col min="1" max="1" customWidth="true" width="40.5"/>
+    <col min="2" max="2" customWidth="true" width="33.75"/>
+    <col min="3" max="3" customWidth="true" width="19.25"/>
+    <col min="4" max="4" customWidth="true" width="42.75"/>
+    <col min="5" max="5" customWidth="true" width="29.25"/>
+    <col min="6" max="9" customWidth="true" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1713,15 +1723,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
-    <col customWidth="1" min="2" max="2" width="57.63"/>
-    <col customWidth="1" min="3" max="3" width="15.63"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col min="1" max="1" customWidth="true" width="12.63"/>
+    <col min="2" max="2" customWidth="true" width="57.63"/>
+    <col min="3" max="3" customWidth="true" width="15.63"/>
+    <col min="4" max="6" customWidth="true" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1776,8 +1787,12 @@
       <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="8"/>
+      <c r="D2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>156</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="12">
         <f>COUNTIF(D:D,"PASS")</f>
@@ -1814,7 +1829,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
@@ -1842,13 +1857,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="8"/>
@@ -1876,13 +1891,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="8"/>
@@ -1910,13 +1925,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="8"/>
@@ -1944,13 +1959,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="8"/>
@@ -1978,13 +1993,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="8"/>
@@ -2012,13 +2027,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="8"/>
@@ -2046,13 +2061,13 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="8"/>
@@ -2080,13 +2095,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="8"/>
@@ -2142,6 +2157,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2150,17 +2166,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="12.13"/>
-    <col customWidth="1" min="3" max="3" width="43.75"/>
-    <col customWidth="1" min="4" max="4" width="22.0"/>
-    <col customWidth="1" min="5" max="5" width="36.75"/>
-    <col customWidth="1" min="6" max="6" width="8.13"/>
-    <col customWidth="1" min="7" max="7" width="20.75"/>
-    <col customWidth="1" min="8" max="8" width="25.5"/>
-    <col customWidth="1" min="9" max="9" width="33.38"/>
-    <col customWidth="1" min="10" max="10" width="28.5"/>
-    <col customWidth="1" min="12" max="12" width="24.63"/>
-    <col customWidth="1" min="13" max="13" width="20.5"/>
+    <col min="1" max="2" customWidth="true" width="12.13"/>
+    <col min="3" max="3" customWidth="true" width="43.75"/>
+    <col min="4" max="4" customWidth="true" width="22.0"/>
+    <col min="5" max="5" customWidth="true" width="36.75"/>
+    <col min="6" max="6" customWidth="true" width="8.13"/>
+    <col min="7" max="7" customWidth="true" width="20.75"/>
+    <col min="8" max="8" customWidth="true" width="25.5"/>
+    <col min="9" max="9" customWidth="true" width="33.38"/>
+    <col min="10" max="10" customWidth="true" width="28.5"/>
+    <col min="12" max="12" customWidth="true" width="24.63"/>
+    <col min="13" max="13" customWidth="true" width="20.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
@@ -2168,7 +2184,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>42</v>
@@ -2177,31 +2193,31 @@
         <v>0</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>45</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="17"/>
@@ -2226,16 +2242,16 @@
         <v>48</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>50</v>
@@ -2244,8 +2260,10 @@
       <c r="H2" s="17"/>
       <c r="I2" s="21"/>
       <c r="J2" s="22"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="17"/>
+      <c r="K2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="L2" s="0"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
@@ -2270,16 +2288,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>50</v>
@@ -2289,13 +2307,17 @@
         <v>12</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="17"/>
+        <v>86</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>156</v>
+      </c>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -2320,19 +2342,19 @@
         <v>48</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -2364,19 +2386,19 @@
         <v>48</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -2408,19 +2430,19 @@
         <v>48</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2452,19 +2474,19 @@
         <v>48</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -2496,19 +2518,19 @@
         <v>48</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -2540,29 +2562,29 @@
         <v>51</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="17"/>
@@ -2590,29 +2612,29 @@
         <v>51</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="17"/>
@@ -2637,32 +2659,32 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="17"/>
@@ -2687,28 +2709,28 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
       <c r="F12" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="17"/>
@@ -2733,28 +2755,28 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="18" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="17"/>
@@ -2779,28 +2801,28 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="18" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="17"/>
@@ -2825,28 +2847,28 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="18" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="17"/>
@@ -2871,32 +2893,32 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="18"/>
       <c r="L16" s="17"/>
@@ -2921,22 +2943,22 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
@@ -2965,28 +2987,28 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="18"/>
       <c r="L18" s="17"/>
@@ -3011,28 +3033,28 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="19"/>
       <c r="F19" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="17"/>
@@ -3057,28 +3079,28 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="17"/>
@@ -3103,28 +3125,28 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="F21" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="17"/>
@@ -3149,36 +3171,36 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
@@ -3201,28 +3223,28 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="22"/>
       <c r="F23" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18" t="s">
         <v>32</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -3247,28 +3269,28 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="22"/>
       <c r="F24" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="18" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -3293,28 +3315,28 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="22"/>
       <c r="F25" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -3339,28 +3361,28 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="22"/>
       <c r="F26" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -3385,32 +3407,32 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -3435,22 +3457,22 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18"/>
@@ -3479,32 +3501,32 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
@@ -3529,22 +3551,22 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
@@ -3573,22 +3595,22 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="18"/>
@@ -3617,32 +3639,32 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
@@ -3667,13 +3689,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>38</v>
@@ -3682,7 +3704,7 @@
         <v>1.0</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="23"/>
@@ -3711,32 +3733,32 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="23" t="s">
         <v>28</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
@@ -3761,23 +3783,23 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="26"/>
       <c r="F35" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="23"/>
       <c r="I35" s="21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J35" s="22">
         <v>5.0</v>
